--- a/assets/UTL Season 1 Stats.xlsx
+++ b/assets/UTL Season 1 Stats.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="115">
   <si>
     <t>Player</t>
   </si>
@@ -249,13 +249,13 @@
     <t>Clip</t>
   </si>
   <si>
-    <t>Match1</t>
-  </si>
-  <si>
-    <t>Match2</t>
-  </si>
-  <si>
-    <t>Match3</t>
+    <t>Game1</t>
+  </si>
+  <si>
+    <t>Game2</t>
+  </si>
+  <si>
+    <t>Game3</t>
   </si>
   <si>
     <t>Winner</t>
@@ -267,10 +267,10 @@
     <t>Stl:GX010312,Goal:GX010312,Stl:GX010310,Ast:GX010310,Stl:GX010309,TO:GX010308,Goal:GX010308,Goal:GX010298,Stl:GX010300,Goal:GX010300,Stl:GX010301,TO:GX010302,Ast:GX010305,Goal:GX010307</t>
   </si>
   <si>
-    <t>5-3 | Makos</t>
-  </si>
-  <si>
-    <t>5-0 | Makos</t>
+    <t>5-3 :Makos</t>
+  </si>
+  <si>
+    <t>5-0 :Makos</t>
   </si>
   <si>
     <t>N/A</t>
@@ -282,18 +282,33 @@
     <t>blk:GX010310,Ast:GX010308,TO:GX010300,Goal:GX010304,Ast:GX010307</t>
   </si>
   <si>
+    <t>5 Goals Makos :3 Goals Croc</t>
+  </si>
+  <si>
     <t>Ast:GX010312,Goal:GX010311,TO:GX010310,Goal:GX010310,Goal:GX010309,Ast:GX010300,TO:GX010303,Goal:GX010305,Stl:GX010307</t>
   </si>
   <si>
+    <t>3 Assist Makos :1 Assist Croc</t>
+  </si>
+  <si>
     <t>Ast:GX010298</t>
   </si>
   <si>
+    <t>5 Steals Makos :3 Steals Croc</t>
+  </si>
+  <si>
     <t>TO:GX010301</t>
   </si>
   <si>
+    <t>3 Blocks Makos :1 Blocks Croc</t>
+  </si>
+  <si>
     <t>Stl:GX010311,Ast:GX010311,Ast:GX010309</t>
   </si>
   <si>
+    <t>3 TO Makos :1 TO Croc</t>
+  </si>
+  <si>
     <t>Goal:GX010302,Stl:GX010303</t>
   </si>
   <si>
@@ -309,64 +324,37 @@
     <t>TO:GX010311,TO:GX010310,TO:GX010300,Stl:GX010301,Ast:GX010302</t>
   </si>
   <si>
-    <t>5-1 | Legion</t>
-  </si>
-  <si>
-    <t>5-4 | Carp</t>
+    <t>5-1:Legion</t>
+  </si>
+  <si>
+    <t>5-4:Carp</t>
   </si>
   <si>
     <t>Draw</t>
   </si>
   <si>
+    <t>5 Goals Makos:3 Goals Croc</t>
+  </si>
+  <si>
+    <t>5 Goals Makos : 3 Goals Croc</t>
+  </si>
+  <si>
+    <t>3 Assist Makos : 1 Assist Croc</t>
+  </si>
+  <si>
+    <t>5 Steals Makos : 3 Steals Croc</t>
+  </si>
+  <si>
     <t>Shae</t>
   </si>
   <si>
+    <t>3 Blocks Makos : 1 Blocks Croc</t>
+  </si>
+  <si>
+    <t>3 TO Makos : 1 TO Croc</t>
+  </si>
+  <si>
     <t>Trevor</t>
-  </si>
-  <si>
-    <t>5-3 : Makos</t>
-  </si>
-  <si>
-    <t>5-0 : Makos</t>
-  </si>
-  <si>
-    <t>5 Goals Makos : 3 Goals Croc</t>
-  </si>
-  <si>
-    <t>3 Assist Makos : 1 Assist Croc</t>
-  </si>
-  <si>
-    <t>5 Steals Makos : 3 Steals Croc</t>
-  </si>
-  <si>
-    <t>3 Blocks Makos : 1 Blocks Croc</t>
-  </si>
-  <si>
-    <t>3 TO Makos : 1 TO Croc</t>
-  </si>
-  <si>
-    <t>5-1 : Legion</t>
-  </si>
-  <si>
-    <t>5-4 : Carp</t>
-  </si>
-  <si>
-    <t>5 Goals Legion : 3 Goals Carp</t>
-  </si>
-  <si>
-    <t>3 Assist Legion : 1 Assist Carp</t>
-  </si>
-  <si>
-    <t>5 Steals Legion : 3 Steals Carp</t>
-  </si>
-  <si>
-    <t>3 Blocks Legion : 1 Blocks Carp</t>
-  </si>
-  <si>
-    <t>3 TO Legion : 1 TO Carp</t>
-  </si>
-  <si>
-    <t>Sub</t>
   </si>
   <si>
     <t>Assist: the pass before a point</t>
@@ -385,7 +373,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m-d-yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -415,16 +403,6 @@
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
     </font>
-    <font>
-      <u/>
-      <color rgb="FF434343"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-      <name val="Roboto"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -434,7 +412,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="15">
     <border/>
     <border>
       <left style="thin">
@@ -620,34 +598,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
@@ -664,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="36">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -752,13 +702,7 @@
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -766,12 +710,6 @@
     </xf>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -782,7 +720,7 @@
     <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1011,23 +949,20 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A29:H40" displayName="Game_Stats_Carp_v_Legion_" name="Game_Stats_Carp_v_Legion_" id="10">
-  <tableColumns count="8">
-    <tableColumn name="Player" id="1"/>
-    <tableColumn name="Goal" id="2"/>
-    <tableColumn name="Assist" id="3"/>
-    <tableColumn name="Steals" id="4"/>
-    <tableColumn name="Blocks" id="5"/>
-    <tableColumn name="Turnovers" id="6"/>
-    <tableColumn name="Clip" id="7"/>
-    <tableColumn name="Team" id="8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="I18:M24" displayName="Table9_2" name="Table9_2" id="10">
+  <tableColumns count="5">
+    <tableColumn name="Game1" id="1"/>
+    <tableColumn name="Game2" id="2"/>
+    <tableColumn name="Game3" id="3"/>
+    <tableColumn name="Winner" id="4"/>
+    <tableColumn name="GameTape" id="5"/>
   </tableColumns>
   <tableStyleInfo name="Week 2-style 4" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A4:H16" displayName="Table7" name="Table7" id="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A4:H16" displayName="Table7_3" name="Table7_3" id="11">
   <tableColumns count="8">
     <tableColumn name="Player" id="1"/>
     <tableColumn name="Goal" id="2"/>
@@ -1043,11 +978,11 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="I4:M10" displayName="Table6" name="Table6" id="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="I4:M10" displayName="Table6_3" name="Table6_3" id="12">
   <tableColumns count="5">
-    <tableColumn name="Match1" id="1"/>
-    <tableColumn name="Match2" id="2"/>
-    <tableColumn name="Match3" id="3"/>
+    <tableColumn name="Game1" id="1"/>
+    <tableColumn name="Game2" id="2"/>
+    <tableColumn name="Game3" id="3"/>
     <tableColumn name="Winner" id="4"/>
     <tableColumn name="GameTape" id="5"/>
   </tableColumns>
@@ -1056,7 +991,7 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A18:H29" displayName="Table8" name="Table8" id="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A18:H29" displayName="Table8_3" name="Table8_3" id="13">
   <tableColumns count="8">
     <tableColumn name="Player" id="1"/>
     <tableColumn name="Goal" id="2"/>
@@ -1072,11 +1007,11 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="I18:M24" displayName="Table9" name="Table9" id="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="I18:M24" displayName="Table9_3" name="Table9_3" id="14">
   <tableColumns count="5">
-    <tableColumn name="Match1" id="1"/>
-    <tableColumn name="Match2" id="2"/>
-    <tableColumn name="Match3" id="3"/>
+    <tableColumn name="Game1" id="1"/>
+    <tableColumn name="Game2" id="2"/>
+    <tableColumn name="Game3" id="3"/>
     <tableColumn name="Winner" id="4"/>
     <tableColumn name="GameTape" id="5"/>
   </tableColumns>
@@ -1085,7 +1020,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A5:H17" displayName="Table11" name="Table11" id="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A4:H16" displayName="Table7_4" name="Table7_4" id="15">
   <tableColumns count="8">
     <tableColumn name="Player" id="1"/>
     <tableColumn name="Goal" id="2"/>
@@ -1101,11 +1036,11 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="I5:M6" displayName="Table10" name="Table10" id="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="I4:M10" displayName="Table6_4" name="Table6_4" id="16">
   <tableColumns count="5">
-    <tableColumn name="Match1" id="1"/>
-    <tableColumn name="Match2" id="2"/>
-    <tableColumn name="Match3" id="3"/>
+    <tableColumn name="Game1" id="1"/>
+    <tableColumn name="Game2" id="2"/>
+    <tableColumn name="Game3" id="3"/>
     <tableColumn name="Winner" id="4"/>
     <tableColumn name="GameTape" id="5"/>
   </tableColumns>
@@ -1114,7 +1049,7 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A19:H30" displayName="Table12" name="Table12" id="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A18:H29" displayName="Table8_4" name="Table8_4" id="17">
   <tableColumns count="8">
     <tableColumn name="Player" id="1"/>
     <tableColumn name="Goal" id="2"/>
@@ -1130,11 +1065,11 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="I19:M20" displayName="Table13" name="Table13" id="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="I18:M24" displayName="Table9_4" name="Table9_4" id="18">
   <tableColumns count="5">
-    <tableColumn name="Match1" id="1"/>
-    <tableColumn name="Match2" id="2"/>
-    <tableColumn name="Match3" id="3"/>
+    <tableColumn name="Game1" id="1"/>
+    <tableColumn name="Game2" id="2"/>
+    <tableColumn name="Game3" id="3"/>
     <tableColumn name="Winner" id="4"/>
     <tableColumn name="GameTape" id="5"/>
   </tableColumns>
@@ -1143,7 +1078,7 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A5:H17" displayName="Table11_2" name="Table11_2" id="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A4:H16" displayName="Table7_5" name="Table7_5" id="19">
   <tableColumns count="8">
     <tableColumn name="Player" id="1"/>
     <tableColumn name="Goal" id="2"/>
@@ -1172,11 +1107,11 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="I5:M6" displayName="Table10_2" name="Table10_2" id="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="I4:M10" displayName="Table6_5" name="Table6_5" id="20">
   <tableColumns count="5">
-    <tableColumn name="Match1" id="1"/>
-    <tableColumn name="Match2" id="2"/>
-    <tableColumn name="Match3" id="3"/>
+    <tableColumn name="Game1" id="1"/>
+    <tableColumn name="Game2" id="2"/>
+    <tableColumn name="Game3" id="3"/>
     <tableColumn name="Winner" id="4"/>
     <tableColumn name="GameTape" id="5"/>
   </tableColumns>
@@ -1185,7 +1120,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A19:H30" displayName="Table12_2" name="Table12_2" id="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A18:H29" displayName="Table8_5" name="Table8_5" id="21">
   <tableColumns count="8">
     <tableColumn name="Player" id="1"/>
     <tableColumn name="Goal" id="2"/>
@@ -1201,11 +1136,11 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="I19:M20" displayName="Table13_2" name="Table13_2" id="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="I18:M24" displayName="Table9_5" name="Table9_5" id="22">
   <tableColumns count="5">
-    <tableColumn name="Match1" id="1"/>
-    <tableColumn name="Match2" id="2"/>
-    <tableColumn name="Match3" id="3"/>
+    <tableColumn name="Game1" id="1"/>
+    <tableColumn name="Game2" id="2"/>
+    <tableColumn name="Game3" id="3"/>
     <tableColumn name="Winner" id="4"/>
     <tableColumn name="GameTape" id="5"/>
   </tableColumns>
@@ -1214,7 +1149,7 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A5:H17" displayName="Table11_3" name="Table11_3" id="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A4:H16" displayName="Table7_6" name="Table7_6" id="23">
   <tableColumns count="8">
     <tableColumn name="Player" id="1"/>
     <tableColumn name="Goal" id="2"/>
@@ -1230,11 +1165,11 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="I5:M6" displayName="Table10_3" name="Table10_3" id="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="I4:M10" displayName="Table6_6" name="Table6_6" id="24">
   <tableColumns count="5">
-    <tableColumn name="Match1" id="1"/>
-    <tableColumn name="Match2" id="2"/>
-    <tableColumn name="Match3" id="3"/>
+    <tableColumn name="Game1" id="1"/>
+    <tableColumn name="Game2" id="2"/>
+    <tableColumn name="Game3" id="3"/>
     <tableColumn name="Winner" id="4"/>
     <tableColumn name="GameTape" id="5"/>
   </tableColumns>
@@ -1243,7 +1178,7 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A19:H30" displayName="Table12_3" name="Table12_3" id="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A18:H29" displayName="Table8_6" name="Table8_6" id="25">
   <tableColumns count="8">
     <tableColumn name="Player" id="1"/>
     <tableColumn name="Goal" id="2"/>
@@ -1259,11 +1194,11 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="I19:M20" displayName="Table13_3" name="Table13_3" id="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="I18:M24" displayName="Table9_6" name="Table9_6" id="26">
   <tableColumns count="5">
-    <tableColumn name="Match1" id="1"/>
-    <tableColumn name="Match2" id="2"/>
-    <tableColumn name="Match3" id="3"/>
+    <tableColumn name="Game1" id="1"/>
+    <tableColumn name="Game2" id="2"/>
+    <tableColumn name="Game3" id="3"/>
     <tableColumn name="Winner" id="4"/>
     <tableColumn name="GameTape" id="5"/>
   </tableColumns>
@@ -1272,7 +1207,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A4:H16" displayName="Table3" name="Table3" id="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A4:H16" displayName="Table7" name="Table7" id="3">
   <tableColumns count="8">
     <tableColumn name="Player" id="1"/>
     <tableColumn name="Goal" id="2"/>
@@ -1288,11 +1223,11 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="I4:M5" displayName="Table2" name="Table2" id="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="I4:M10" displayName="Table6" name="Table6" id="4">
   <tableColumns count="5">
-    <tableColumn name="Match1" id="1"/>
-    <tableColumn name="Match2" id="2"/>
-    <tableColumn name="Match3" id="3"/>
+    <tableColumn name="Game1" id="1"/>
+    <tableColumn name="Game2" id="2"/>
+    <tableColumn name="Game3" id="3"/>
     <tableColumn name="Winner" id="4"/>
     <tableColumn name="GameTape" id="5"/>
   </tableColumns>
@@ -1301,7 +1236,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A18:H29" displayName="Table4" name="Table4" id="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A18:H29" displayName="Table8" name="Table8" id="5">
   <tableColumns count="8">
     <tableColumn name="Player" id="1"/>
     <tableColumn name="Goal" id="2"/>
@@ -1317,11 +1252,11 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="I18:M19" displayName="Table5" name="Table5" id="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="I18:M24" displayName="Table9" name="Table9" id="6">
   <tableColumns count="5">
-    <tableColumn name="Match1" id="1"/>
-    <tableColumn name="Match2" id="2"/>
-    <tableColumn name="Match3" id="3"/>
+    <tableColumn name="Game1" id="1"/>
+    <tableColumn name="Game2" id="2"/>
+    <tableColumn name="Game3" id="3"/>
     <tableColumn name="Winner" id="4"/>
     <tableColumn name="GameTape" id="5"/>
   </tableColumns>
@@ -1330,20 +1265,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E7" displayName="Game_Results_Makos_v_Chlorine_Crocs" name="Game_Results_Makos_v_Chlorine_Crocs" id="7">
-  <tableColumns count="5">
-    <tableColumn name="Match1" id="1"/>
-    <tableColumn name="Match2" id="2"/>
-    <tableColumn name="Match3" id="3"/>
-    <tableColumn name="Winner" id="4"/>
-    <tableColumn name="GameTape" id="5"/>
-  </tableColumns>
-  <tableStyleInfo name="Week 2-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A8:H20" displayName="Game_Stats_Makos_v_Chlorine_Crocs" name="Game_Stats_Makos_v_Chlorine_Crocs" id="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A4:H16" displayName="Table7_2" name="Table7_2" id="7">
   <tableColumns count="8">
     <tableColumn name="Player" id="1"/>
     <tableColumn name="Goal" id="2"/>
@@ -1354,18 +1276,34 @@
     <tableColumn name="Clip" id="7"/>
     <tableColumn name="Team" id="8"/>
   </tableColumns>
+  <tableStyleInfo name="Week 2-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="I4:M10" displayName="Table6_2" name="Table6_2" id="8">
+  <tableColumns count="5">
+    <tableColumn name="Game1" id="1"/>
+    <tableColumn name="Game2" id="2"/>
+    <tableColumn name="Game3" id="3"/>
+    <tableColumn name="Winner" id="4"/>
+    <tableColumn name="GameTape" id="5"/>
+  </tableColumns>
   <tableStyleInfo name="Week 2-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A22:E28" displayName="Game_Results_Carp_v_Legion_" name="Game_Results_Carp_v_Legion_" id="9">
-  <tableColumns count="5">
-    <tableColumn name="Match1" id="1"/>
-    <tableColumn name="Match2" id="2"/>
-    <tableColumn name="Match3" id="3"/>
-    <tableColumn name="Winner" id="4"/>
-    <tableColumn name="GameTape" id="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A18:H29" displayName="Table8_2" name="Table8_2" id="9">
+  <tableColumns count="8">
+    <tableColumn name="Player" id="1"/>
+    <tableColumn name="Goal" id="2"/>
+    <tableColumn name="Assist" id="3"/>
+    <tableColumn name="Steals" id="4"/>
+    <tableColumn name="Blocks" id="5"/>
+    <tableColumn name="Turnovers" id="6"/>
+    <tableColumn name="Clip" id="7"/>
+    <tableColumn name="Team" id="8"/>
   </tableColumns>
   <tableStyleInfo name="Week 2-style 3" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
@@ -2243,19 +2181,19 @@
       <c r="H5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="K5" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="L5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="31" t="s">
+      <c r="M5" s="29" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2284,6 +2222,17 @@
       <c r="H6" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="I6" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7">
       <c r="A7" s="27" t="s">
@@ -2305,11 +2254,22 @@
         <v>2.0</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="I7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" s="27" t="s">
@@ -2331,11 +2291,22 @@
         <v>0.0</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="I8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9">
       <c r="A9" s="27" t="s">
@@ -2357,11 +2328,22 @@
         <v>1.0</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="I9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="6"/>
     </row>
     <row r="10">
       <c r="A10" s="27" t="s">
@@ -2383,11 +2365,22 @@
         <v>0.0</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="I10" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="16"/>
+      <c r="M10" s="17"/>
     </row>
     <row r="11">
       <c r="A11" s="27" t="s">
@@ -2409,10 +2402,10 @@
         <v>0.0</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12">
@@ -2435,10 +2428,10 @@
         <v>2.0</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13">
@@ -2461,10 +2454,10 @@
         <v>1.0</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14">
@@ -2487,10 +2480,10 @@
         <v>2.0</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
@@ -2512,9 +2505,9 @@
       <c r="F15" s="28">
         <v>0.0</v>
       </c>
-      <c r="G15" s="32"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16">
@@ -2537,32 +2530,32 @@
         <v>3.0</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="31" t="s">
         <v>75</v>
       </c>
       <c r="H18" s="19" t="s">
@@ -2591,25 +2584,25 @@
       <c r="B19" s="27">
         <v>2.0</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
       <c r="H19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="J19" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="K19" s="30" t="s">
+      <c r="I19" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="K19" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="L19" s="30" t="s">
-        <v>98</v>
+      <c r="L19" s="21" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="20">
@@ -2619,56 +2612,92 @@
       <c r="B20" s="27">
         <v>3.0</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
       <c r="H20" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="I20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="32"/>
     </row>
     <row r="21">
       <c r="A21" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
       <c r="H21" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="I21" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="33"/>
     </row>
     <row r="22">
       <c r="A22" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
       <c r="H22" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="I22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="32"/>
     </row>
     <row r="23">
       <c r="A23" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
+        <v>108</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
       <c r="H23" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="I23" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="33"/>
     </row>
     <row r="24">
       <c r="A24" s="27" t="s">
@@ -2677,25 +2706,34 @@
       <c r="B24" s="27">
         <v>1.0</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
       <c r="H24" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="I24" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="34"/>
     </row>
     <row r="25">
       <c r="A25" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
       <c r="H25" s="6" t="s">
         <v>7</v>
       </c>
@@ -2704,12 +2742,12 @@
       <c r="A26" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
       <c r="H26" s="9" t="s">
         <v>7</v>
       </c>
@@ -2718,26 +2756,26 @@
       <c r="A27" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
       <c r="H27" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
+        <v>111</v>
+      </c>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
       <c r="H28" s="9" t="s">
         <v>7</v>
       </c>
@@ -2746,13 +2784,13 @@
       <c r="A29" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="34" t="s">
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="35" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2790,182 +2828,282 @@
     <col customWidth="1" min="13" max="13" width="49.5"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="21" t="s">
+    <row r="5">
+      <c r="A5" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="27">
+        <v>5.0</v>
+      </c>
+      <c r="C5" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="D5" s="27">
+        <v>5.0</v>
+      </c>
+      <c r="E5" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="L5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="M5" s="29" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-    </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
+      <c r="A6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="C6" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="D6" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="F6" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7">
-      <c r="A7" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
+      <c r="A7" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="27">
+        <v>4.0</v>
+      </c>
+      <c r="C7" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="D7" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="6"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>43</v>
-      </c>
+      <c r="A8" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9">
       <c r="A9" s="27" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B9" s="27">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="C9" s="27">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D9" s="27">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="E9" s="27">
         <v>0.0</v>
       </c>
       <c r="F9" s="28">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="I9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="6"/>
     </row>
     <row r="10">
       <c r="A10" s="27" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B10" s="27">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C10" s="27">
         <v>2.0</v>
       </c>
       <c r="D10" s="27">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E10" s="27">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F10" s="28">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="I10" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="16"/>
+      <c r="M10" s="17"/>
     </row>
     <row r="11">
       <c r="A11" s="27" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B11" s="27">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C11" s="27">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D11" s="27">
         <v>1.0</v>
@@ -2974,18 +3112,18 @@
         <v>0.0</v>
       </c>
       <c r="F11" s="28">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="27" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B12" s="27">
         <v>0.0</v>
@@ -2994,24 +3132,24 @@
         <v>1.0</v>
       </c>
       <c r="D12" s="27">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E12" s="27">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F12" s="28">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="27" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B13" s="27">
         <v>0.0</v>
@@ -3029,50 +3167,50 @@
         <v>1.0</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="27" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B14" s="27">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="C14" s="27">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D14" s="27">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E14" s="27">
         <v>0.0</v>
       </c>
       <c r="F14" s="28">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="27" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B15" s="27">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C15" s="27">
         <v>0.0</v>
       </c>
       <c r="D15" s="27">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E15" s="27">
         <v>0.0</v>
@@ -3080,16 +3218,14 @@
       <c r="F15" s="28">
         <v>0.0</v>
       </c>
-      <c r="G15" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="G15" s="30"/>
       <c r="H15" s="6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="27" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B16" s="27">
         <v>0.0</v>
@@ -3101,400 +3237,284 @@
         <v>1.0</v>
       </c>
       <c r="E16" s="27">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F16" s="28">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="C17" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D17" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="E17" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="F17" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="C18" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D18" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="E18" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="F18" s="28">
-        <v>2.0</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>92</v>
+      <c r="A18" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="27" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B19" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="C19" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D19" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="E19" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="F19" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="G19" s="32"/>
+        <v>2.0</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
       <c r="H19" s="6" t="s">
-        <v>92</v>
+        <v>13</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="27">
+        <v>3.0</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="32"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="33"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="32"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="33"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="34"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="C20" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="D20" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="E20" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="F20" s="28">
-        <v>3.0</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="36"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="37"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="36"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="37"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="38"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="G29" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="34" t="s">
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="35" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="F9:F20">
-      <formula1>AND(ISNUMBER(F9),(NOT(OR(NOT(ISERROR(DATEVALUE(F9))), AND(ISNUMBER(F9), LEFT(CELL("format", F9))="D")))))</formula1>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="F5:F16">
+      <formula1>AND(ISNUMBER(F5),(NOT(OR(NOT(ISERROR(DATEVALUE(F5))), AND(ISNUMBER(F5), LEFT(CELL("format", F5))="D")))))</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E2"/>
+    <hyperlink r:id="rId1" ref="M5"/>
   </hyperlinks>
   <drawing r:id="rId2"/>
   <tableParts count="4">
@@ -3599,7 +3619,7 @@
       <c r="L5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="39" t="s">
+      <c r="M5" s="29" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3629,12 +3649,14 @@
         <v>17</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K6" s="8"/>
+        <v>87</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="L6" s="8"/>
       <c r="M6" s="9"/>
     </row>
@@ -3658,18 +3680,20 @@
         <v>2.0</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="K7" s="5"/>
+        <v>89</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>84</v>
+      </c>
       <c r="L7" s="5"/>
       <c r="M7" s="6"/>
     </row>
@@ -3693,18 +3717,20 @@
         <v>0.0</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="K8" s="8"/>
+        <v>91</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="L8" s="8"/>
       <c r="M8" s="9"/>
     </row>
@@ -3728,18 +3754,20 @@
         <v>1.0</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="K9" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>84</v>
+      </c>
       <c r="L9" s="5"/>
       <c r="M9" s="6"/>
     </row>
@@ -3763,18 +3791,20 @@
         <v>0.0</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="K10" s="16"/>
+        <v>95</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>84</v>
+      </c>
       <c r="L10" s="16"/>
       <c r="M10" s="17"/>
     </row>
@@ -3798,10 +3828,10 @@
         <v>0.0</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12">
@@ -3824,10 +3854,10 @@
         <v>2.0</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13">
@@ -3850,10 +3880,10 @@
         <v>1.0</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14">
@@ -3876,10 +3906,10 @@
         <v>2.0</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
@@ -3901,9 +3931,9 @@
       <c r="F15" s="28">
         <v>0.0</v>
       </c>
-      <c r="G15" s="32"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16">
@@ -3926,32 +3956,32 @@
         <v>3.0</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="31" t="s">
         <v>75</v>
       </c>
       <c r="H18" s="19" t="s">
@@ -3980,25 +4010,25 @@
       <c r="B19" s="27">
         <v>2.0</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
       <c r="H19" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K19" s="21" t="s">
         <v>84</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20">
@@ -4008,92 +4038,92 @@
       <c r="B20" s="27">
         <v>3.0</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
       <c r="H20" s="9" t="s">
         <v>13</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
-      <c r="M20" s="36"/>
+      <c r="M20" s="32"/>
     </row>
     <row r="21">
       <c r="A21" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
       <c r="H21" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="37"/>
+      <c r="M21" s="33"/>
     </row>
     <row r="22">
       <c r="A22" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
       <c r="H22" s="9" t="s">
         <v>13</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
-      <c r="M22" s="36"/>
+      <c r="M22" s="32"/>
     </row>
     <row r="23">
       <c r="A23" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
+        <v>108</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
       <c r="H23" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="37"/>
+      <c r="M23" s="33"/>
     </row>
     <row r="24">
       <c r="A24" s="27" t="s">
@@ -4102,34 +4132,34 @@
       <c r="B24" s="27">
         <v>1.0</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
       <c r="H24" s="9" t="s">
         <v>13</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
-      <c r="M24" s="38"/>
+      <c r="M24" s="34"/>
     </row>
     <row r="25">
       <c r="A25" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
       <c r="H25" s="6" t="s">
         <v>7</v>
       </c>
@@ -4138,12 +4168,12 @@
       <c r="A26" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
       <c r="H26" s="9" t="s">
         <v>7</v>
       </c>
@@ -4152,26 +4182,26 @@
       <c r="A27" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
       <c r="H27" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
+        <v>111</v>
+      </c>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
       <c r="H28" s="9" t="s">
         <v>7</v>
       </c>
@@ -4180,14 +4210,14 @@
       <c r="A29" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="34" t="s">
-        <v>115</v>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="35" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -4224,149 +4254,208 @@
     <col customWidth="1" min="13" max="13" width="49.5"/>
   </cols>
   <sheetData>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>80</v>
+      <c r="A5" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="27">
+        <v>5.0</v>
+      </c>
+      <c r="C5" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="D5" s="27">
+        <v>5.0</v>
+      </c>
+      <c r="E5" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="27" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B6" s="27">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="C6" s="27">
         <v>2.0</v>
       </c>
       <c r="D6" s="27">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="E6" s="27">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F6" s="28">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" s="30" t="s">
+      <c r="I6" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="L6" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="31" t="s">
-        <v>85</v>
-      </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7">
       <c r="A7" s="27" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B7" s="27">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C7" s="27">
         <v>2.0</v>
       </c>
       <c r="D7" s="27">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E7" s="27">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F7" s="28">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="I7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" s="27" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B8" s="27">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C8" s="27">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D8" s="27">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E8" s="27">
         <v>0.0</v>
       </c>
       <c r="F8" s="28">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="I8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9">
       <c r="A9" s="27" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B9" s="27">
         <v>0.0</v>
       </c>
       <c r="C9" s="27">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D9" s="27">
         <v>0.0</v>
@@ -4375,50 +4464,72 @@
         <v>0.0</v>
       </c>
       <c r="F9" s="28">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="H9" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="I9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="6"/>
     </row>
     <row r="10">
       <c r="A10" s="27" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B10" s="27">
         <v>0.0</v>
       </c>
       <c r="C10" s="27">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D10" s="27">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E10" s="27">
         <v>0.0</v>
       </c>
       <c r="F10" s="28">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>115</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="16"/>
+      <c r="M10" s="17"/>
     </row>
     <row r="11">
       <c r="A11" s="27" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B11" s="27">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C11" s="27">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D11" s="27">
         <v>1.0</v>
@@ -4430,387 +4541,406 @@
         <v>0.0</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>115</v>
+        <v>96</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="27" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B12" s="27">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C12" s="27">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D12" s="27">
         <v>1.0</v>
       </c>
       <c r="E12" s="27">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F12" s="28">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>92</v>
+        <v>98</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="27" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B13" s="27">
         <v>0.0</v>
       </c>
       <c r="C13" s="27">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D13" s="27">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E13" s="27">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F13" s="28">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="H13" s="9" t="s">
         <v>92</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="27" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B14" s="27">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="C14" s="27">
         <v>0.0</v>
       </c>
       <c r="D14" s="27">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E14" s="27">
         <v>0.0</v>
       </c>
       <c r="F14" s="28">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>92</v>
+        <v>99</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="27" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B15" s="27">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C15" s="27">
         <v>0.0</v>
       </c>
       <c r="D15" s="27">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E15" s="27">
         <v>0.0</v>
       </c>
       <c r="F15" s="28">
-        <v>2.0</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>92</v>
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="30"/>
+      <c r="H15" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="27" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B16" s="27">
         <v>0.0</v>
       </c>
       <c r="C16" s="27">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D16" s="27">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E16" s="27">
         <v>0.0</v>
       </c>
       <c r="F16" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="C17" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="D17" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="E17" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="F17" s="28">
         <v>3.0</v>
       </c>
-      <c r="G17" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>115</v>
+      <c r="G16" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>80</v>
+      <c r="A19" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="27" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B20" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="6" t="s">
+        <v>3.0</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="J20" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="K20" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="L20" s="30" t="s">
-        <v>98</v>
-      </c>
+      <c r="I20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="32"/>
     </row>
     <row r="21">
       <c r="A21" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="I21" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="33"/>
     </row>
     <row r="22">
       <c r="A22" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="I22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="32"/>
     </row>
     <row r="23">
       <c r="A23" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="I23" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="33"/>
     </row>
     <row r="24">
       <c r="A24" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="I24" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="34"/>
     </row>
     <row r="25">
       <c r="A25" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="9" t="s">
-        <v>13</v>
+        <v>39</v>
+      </c>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="35" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="34" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="F6:F17">
-      <formula1>AND(ISNUMBER(F6),(NOT(OR(NOT(ISERROR(DATEVALUE(F6))), AND(ISNUMBER(F6), LEFT(CELL("format", F6))="D")))))</formula1>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="F5:F16">
+      <formula1>AND(ISNUMBER(F5),(NOT(OR(NOT(ISERROR(DATEVALUE(F5))), AND(ISNUMBER(F5), LEFT(CELL("format", F5))="D")))))</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="M6"/>
+    <hyperlink r:id="rId1" ref="M5"/>
   </hyperlinks>
   <drawing r:id="rId2"/>
   <tableParts count="4">
@@ -4837,149 +4967,208 @@
     <col customWidth="1" min="13" max="13" width="49.5"/>
   </cols>
   <sheetData>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>80</v>
+      <c r="A5" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="27">
+        <v>5.0</v>
+      </c>
+      <c r="C5" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="D5" s="27">
+        <v>5.0</v>
+      </c>
+      <c r="E5" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="27" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B6" s="27">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="C6" s="27">
         <v>2.0</v>
       </c>
       <c r="D6" s="27">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="E6" s="27">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F6" s="28">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" s="30" t="s">
+      <c r="I6" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="L6" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="31" t="s">
-        <v>85</v>
-      </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7">
       <c r="A7" s="27" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B7" s="27">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C7" s="27">
         <v>2.0</v>
       </c>
       <c r="D7" s="27">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E7" s="27">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F7" s="28">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="I7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" s="27" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B8" s="27">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C8" s="27">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D8" s="27">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E8" s="27">
         <v>0.0</v>
       </c>
       <c r="F8" s="28">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="I8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9">
       <c r="A9" s="27" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B9" s="27">
         <v>0.0</v>
       </c>
       <c r="C9" s="27">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D9" s="27">
         <v>0.0</v>
@@ -4988,50 +5177,72 @@
         <v>0.0</v>
       </c>
       <c r="F9" s="28">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="H9" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="I9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="6"/>
     </row>
     <row r="10">
       <c r="A10" s="27" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B10" s="27">
         <v>0.0</v>
       </c>
       <c r="C10" s="27">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D10" s="27">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E10" s="27">
         <v>0.0</v>
       </c>
       <c r="F10" s="28">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>115</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="16"/>
+      <c r="M10" s="17"/>
     </row>
     <row r="11">
       <c r="A11" s="27" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B11" s="27">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C11" s="27">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D11" s="27">
         <v>1.0</v>
@@ -5043,387 +5254,406 @@
         <v>0.0</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>115</v>
+        <v>96</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="27" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B12" s="27">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C12" s="27">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D12" s="27">
         <v>1.0</v>
       </c>
       <c r="E12" s="27">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F12" s="28">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>92</v>
+        <v>98</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="27" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B13" s="27">
         <v>0.0</v>
       </c>
       <c r="C13" s="27">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D13" s="27">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E13" s="27">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F13" s="28">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="H13" s="9" t="s">
         <v>92</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="27" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B14" s="27">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="C14" s="27">
         <v>0.0</v>
       </c>
       <c r="D14" s="27">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E14" s="27">
         <v>0.0</v>
       </c>
       <c r="F14" s="28">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>92</v>
+        <v>99</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="27" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B15" s="27">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C15" s="27">
         <v>0.0</v>
       </c>
       <c r="D15" s="27">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E15" s="27">
         <v>0.0</v>
       </c>
       <c r="F15" s="28">
-        <v>2.0</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>92</v>
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="30"/>
+      <c r="H15" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="27" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B16" s="27">
         <v>0.0</v>
       </c>
       <c r="C16" s="27">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D16" s="27">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E16" s="27">
         <v>0.0</v>
       </c>
       <c r="F16" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="C17" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="D17" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="E17" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="F17" s="28">
         <v>3.0</v>
       </c>
-      <c r="G17" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>115</v>
+      <c r="G16" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>80</v>
+      <c r="A19" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="27" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B20" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="6" t="s">
+        <v>3.0</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="J20" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="K20" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="L20" s="30" t="s">
-        <v>98</v>
-      </c>
+      <c r="I20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="32"/>
     </row>
     <row r="21">
       <c r="A21" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="I21" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="33"/>
     </row>
     <row r="22">
       <c r="A22" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="I22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="32"/>
     </row>
     <row r="23">
       <c r="A23" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="I23" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="33"/>
     </row>
     <row r="24">
       <c r="A24" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="I24" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="34"/>
     </row>
     <row r="25">
       <c r="A25" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="9" t="s">
-        <v>13</v>
+        <v>39</v>
+      </c>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="35" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="34" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="F6:F17">
-      <formula1>AND(ISNUMBER(F6),(NOT(OR(NOT(ISERROR(DATEVALUE(F6))), AND(ISNUMBER(F6), LEFT(CELL("format", F6))="D")))))</formula1>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="F5:F16">
+      <formula1>AND(ISNUMBER(F5),(NOT(OR(NOT(ISERROR(DATEVALUE(F5))), AND(ISNUMBER(F5), LEFT(CELL("format", F5))="D")))))</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="M6"/>
+    <hyperlink r:id="rId1" ref="M5"/>
   </hyperlinks>
   <drawing r:id="rId2"/>
   <tableParts count="4">
@@ -5450,149 +5680,208 @@
     <col customWidth="1" min="13" max="13" width="49.5"/>
   </cols>
   <sheetData>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>80</v>
+      <c r="A5" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="27">
+        <v>5.0</v>
+      </c>
+      <c r="C5" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="D5" s="27">
+        <v>5.0</v>
+      </c>
+      <c r="E5" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="27" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B6" s="27">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="C6" s="27">
         <v>2.0</v>
       </c>
       <c r="D6" s="27">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="E6" s="27">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F6" s="28">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" s="30" t="s">
+      <c r="I6" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="L6" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="31" t="s">
-        <v>85</v>
-      </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7">
       <c r="A7" s="27" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B7" s="27">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C7" s="27">
         <v>2.0</v>
       </c>
       <c r="D7" s="27">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E7" s="27">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F7" s="28">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="I7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" s="27" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B8" s="27">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C8" s="27">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D8" s="27">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E8" s="27">
         <v>0.0</v>
       </c>
       <c r="F8" s="28">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="I8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9">
       <c r="A9" s="27" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B9" s="27">
         <v>0.0</v>
       </c>
       <c r="C9" s="27">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D9" s="27">
         <v>0.0</v>
@@ -5601,50 +5890,72 @@
         <v>0.0</v>
       </c>
       <c r="F9" s="28">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="H9" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="I9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="6"/>
     </row>
     <row r="10">
       <c r="A10" s="27" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B10" s="27">
         <v>0.0</v>
       </c>
       <c r="C10" s="27">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D10" s="27">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E10" s="27">
         <v>0.0</v>
       </c>
       <c r="F10" s="28">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>115</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="16"/>
+      <c r="M10" s="17"/>
     </row>
     <row r="11">
       <c r="A11" s="27" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B11" s="27">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C11" s="27">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D11" s="27">
         <v>1.0</v>
@@ -5656,387 +5967,406 @@
         <v>0.0</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>115</v>
+        <v>96</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="27" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B12" s="27">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C12" s="27">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D12" s="27">
         <v>1.0</v>
       </c>
       <c r="E12" s="27">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F12" s="28">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>92</v>
+        <v>98</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="27" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B13" s="27">
         <v>0.0</v>
       </c>
       <c r="C13" s="27">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D13" s="27">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E13" s="27">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F13" s="28">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="H13" s="9" t="s">
         <v>92</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="27" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B14" s="27">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="C14" s="27">
         <v>0.0</v>
       </c>
       <c r="D14" s="27">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E14" s="27">
         <v>0.0</v>
       </c>
       <c r="F14" s="28">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>92</v>
+        <v>99</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="27" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B15" s="27">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C15" s="27">
         <v>0.0</v>
       </c>
       <c r="D15" s="27">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E15" s="27">
         <v>0.0</v>
       </c>
       <c r="F15" s="28">
-        <v>2.0</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>92</v>
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="30"/>
+      <c r="H15" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="27" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B16" s="27">
         <v>0.0</v>
       </c>
       <c r="C16" s="27">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D16" s="27">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E16" s="27">
         <v>0.0</v>
       </c>
       <c r="F16" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="C17" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="D17" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="E17" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="F17" s="28">
         <v>3.0</v>
       </c>
-      <c r="G17" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>115</v>
+      <c r="G16" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>80</v>
+      <c r="A19" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="27" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B20" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="6" t="s">
+        <v>3.0</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="J20" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="K20" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="L20" s="30" t="s">
-        <v>98</v>
-      </c>
+      <c r="I20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="32"/>
     </row>
     <row r="21">
       <c r="A21" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="I21" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="33"/>
     </row>
     <row r="22">
       <c r="A22" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="I22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="32"/>
     </row>
     <row r="23">
       <c r="A23" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="I23" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="33"/>
     </row>
     <row r="24">
       <c r="A24" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="I24" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="34"/>
     </row>
     <row r="25">
       <c r="A25" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="9" t="s">
-        <v>13</v>
+        <v>39</v>
+      </c>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="35" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="34" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="F6:F17">
-      <formula1>AND(ISNUMBER(F6),(NOT(OR(NOT(ISERROR(DATEVALUE(F6))), AND(ISNUMBER(F6), LEFT(CELL("format", F6))="D")))))</formula1>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="F5:F16">
+      <formula1>AND(ISNUMBER(F5),(NOT(OR(NOT(ISERROR(DATEVALUE(F5))), AND(ISNUMBER(F5), LEFT(CELL("format", F5))="D")))))</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="M6"/>
+    <hyperlink r:id="rId1" ref="M5"/>
   </hyperlinks>
   <drawing r:id="rId2"/>
   <tableParts count="4">
@@ -6060,17 +6390,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="25" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="25" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
